--- a/data/match_result/SCAN000702-2/final.xlsx
+++ b/data/match_result/SCAN000702-2/final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>match_rank</t>
   </si>
@@ -43,7 +43,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>8.9978</t>
+    <t>4.3104</t>
   </si>
   <si>
     <t>114</t>
@@ -52,169 +52,166 @@
     <t>2</t>
   </si>
   <si>
-    <t>8.7599</t>
+    <t>4.2115</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4.1635</t>
   </si>
   <si>
     <t>225</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>8.6675</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>8.4438</t>
+    <t>3.7928</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3.7201</t>
   </si>
   <si>
     <t>70</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8.2885</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
-    <t>7.6772</t>
+    <t>3.4796</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>3.4703</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>7.6211</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3.3976</t>
   </si>
   <si>
     <t>40</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7.5856</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>3.3890</t>
+  </si>
+  <si>
+    <t>220</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>7.4523</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>7.4211</t>
-  </si>
-  <si>
-    <t>376</t>
+    <t>3.3746</t>
+  </si>
+  <si>
+    <t>119</t>
   </si>
   <si>
     <t>11</t>
   </si>
   <si>
-    <t>7.3733</t>
+    <t>3.3361</t>
+  </si>
+  <si>
+    <t>312</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3.2753</t>
   </si>
   <si>
     <t>380</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>7.3633</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
-    <t>7.1765</t>
+    <t>3.1379</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>3.1233</t>
   </si>
   <si>
     <t>288</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>7.0478</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>3.0946</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>3.0834</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>3.0760</t>
   </si>
   <si>
     <t>323</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>7.0300</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>7.0162</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>6.9763</t>
-  </si>
-  <si>
-    <t>338</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>6.9741</t>
-  </si>
-  <si>
-    <t>257</t>
+    <t>3.0677</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
-    <t>6.8041</t>
-  </si>
-  <si>
-    <t>350</t>
+    <t>3.0495</t>
+  </si>
+  <si>
+    <t>372</t>
   </si>
   <si>
     <t>20</t>
   </si>
   <si>
-    <t>6.7980</t>
-  </si>
-  <si>
-    <t>247</t>
+    <t>3.0482</t>
+  </si>
+  <si>
+    <t>173</t>
   </si>
 </sst>
 </file>
@@ -613,13 +610,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>45162</xdr:rowOff>
+      <xdr:rowOff>335168</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2313508</xdr:rowOff>
+      <xdr:rowOff>1878498</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -636,8 +633,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="2769312"/>
-          <a:ext cx="2381250" cy="2268346"/>
+          <a:off x="11334750" y="3059318"/>
+          <a:ext cx="2381250" cy="1543331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -803,13 +800,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>335168</xdr:rowOff>
+      <xdr:rowOff>45162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1878498</xdr:rowOff>
+      <xdr:rowOff>2313508</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -826,8 +823,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="5592968"/>
-          <a:ext cx="2381250" cy="1543331"/>
+          <a:off x="11334750" y="5302962"/>
+          <a:ext cx="2381250" cy="2268346"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -895,7 +892,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -933,7 +930,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -971,7 +968,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -993,13 +990,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>118284</xdr:rowOff>
+      <xdr:rowOff>196149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>2203824</xdr:rowOff>
+      <xdr:rowOff>2087026</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1009,15 +1006,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="7909734"/>
-          <a:ext cx="2381250" cy="2085539"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="7987599"/>
+          <a:ext cx="2381250" cy="1890877"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1085,7 +1082,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1123,7 +1120,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1161,7 +1158,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1183,13 +1180,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>196149</xdr:rowOff>
+      <xdr:rowOff>118284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>2087026</xdr:rowOff>
+      <xdr:rowOff>2203824</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1206,8 +1203,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="10521249"/>
-          <a:ext cx="2381250" cy="1890877"/>
+          <a:off x="11334750" y="10443384"/>
+          <a:ext cx="2381250" cy="2085539"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,13 +1370,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>314914</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1456802</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1908878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1396,8 +1393,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="12858750"/>
-          <a:ext cx="1456802" cy="2381250"/>
+          <a:off x="11334750" y="13173664"/>
+          <a:ext cx="2381250" cy="1593964"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1567,7 +1564,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1665672</xdr:colOff>
+      <xdr:colOff>1456802</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -1587,7 +1584,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="15392400"/>
-          <a:ext cx="1665672" cy="2381250"/>
+          <a:ext cx="1456802" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1753,13 +1750,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>486492</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1665672</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>1651512</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1776,8 +1773,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="18412542"/>
-          <a:ext cx="2381250" cy="1165020"/>
+          <a:off x="11334750" y="17926050"/>
+          <a:ext cx="1665672" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1845,7 +1842,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1883,7 +1880,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1921,7 +1918,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1959,7 +1956,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2035,7 +2032,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2073,7 +2070,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2111,7 +2108,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2133,13 +2130,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>314914</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>2057148</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1908878</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2156,8 +2153,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="23308264"/>
-          <a:ext cx="2381250" cy="1593964"/>
+          <a:off x="11334750" y="22993350"/>
+          <a:ext cx="2057148" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,7 +2222,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2263,7 +2260,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2301,7 +2298,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2323,13 +2320,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>510316</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1969539</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>1615777</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2339,15 +2336,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="26037316"/>
-          <a:ext cx="2381250" cy="1105461"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="25527000"/>
+          <a:ext cx="1969539" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2415,7 +2412,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2453,7 +2450,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2491,7 +2488,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2513,13 +2510,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>510316</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2057148</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1615777</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2529,15 +2526,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="28060650"/>
-          <a:ext cx="2057148" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="28570966"/>
+          <a:ext cx="2381250" cy="1105461"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2605,7 +2602,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2643,7 +2640,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2681,7 +2678,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2703,13 +2700,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>486492</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1864787</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1651512</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2719,15 +2716,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="30594300"/>
-          <a:ext cx="1864787" cy="2381250"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="31080792"/>
+          <a:ext cx="2381250" cy="1165020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,7 +2792,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2833,7 +2830,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2871,7 +2868,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2893,13 +2890,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>449239</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1864787</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>1707392</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2909,15 +2906,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="33577189"/>
-          <a:ext cx="2381250" cy="1258153"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="33127950"/>
+          <a:ext cx="1864787" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2985,7 +2982,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3023,7 +3020,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3061,7 +3058,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3083,13 +3080,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2205296</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2258786</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3106,8 +3103,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="35661600"/>
-          <a:ext cx="2205296" cy="2381250"/>
+          <a:off x="11334750" y="35743243"/>
+          <a:ext cx="2381250" cy="2177143"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3175,7 +3172,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3251,7 +3248,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3277,7 +3274,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1969539</xdr:colOff>
+      <xdr:colOff>2158588</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3297,7 +3294,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="38195250"/>
-          <a:ext cx="1969539" cy="2381250"/>
+          <a:ext cx="2158588" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3365,7 +3362,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3441,7 +3438,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3463,13 +3460,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>449239</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1545000</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>1707392</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3486,8 +3483,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="40728900"/>
-          <a:ext cx="1545000" cy="2381250"/>
+          <a:off x="11334750" y="41178139"/>
+          <a:ext cx="2381250" cy="1258153"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3555,7 +3552,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3631,7 +3628,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3653,13 +3650,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2158588</xdr:colOff>
+      <xdr:colOff>2381250</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>2381250</xdr:rowOff>
+      <xdr:rowOff>2161442</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3676,8 +3673,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11334750" y="43262550"/>
-          <a:ext cx="2158588" cy="2381250"/>
+          <a:off x="11334750" y="43409088"/>
+          <a:ext cx="2381250" cy="2014904"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3847,7 +3844,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1910704</xdr:colOff>
+      <xdr:colOff>1258986</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
@@ -3867,7 +3864,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11334750" y="45796200"/>
-          <a:ext cx="1910704" cy="2381250"/>
+          <a:ext cx="1258986" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3935,7 +3932,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -3973,7 +3970,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4011,7 +4008,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4033,13 +4030,13 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>81643</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:colOff>1729061</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>2258786</xdr:rowOff>
+      <xdr:rowOff>2381250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4049,15 +4046,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId65"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11334750" y="48411493"/>
-          <a:ext cx="2381250" cy="2177143"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId63"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="48329850"/>
+          <a:ext cx="1729061" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4497,46 +4494,46 @@
     </row>
     <row r="11" spans="1:8" ht="200" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="200" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="200" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="200" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="200" customHeight="1">
@@ -4591,29 +4588,29 @@
         <v>59</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="200" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="200" customHeight="1">
       <c r="A21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
